--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -1,109 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\PCiCDTdtTDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Revisão\trans\PCiCDTdtTDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46BBCB7-0593-4C8E-A8D3-B08D7B83486F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="10290"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Passenger Data" sheetId="4" r:id="rId2"/>
-    <sheet name="Freight Data" sheetId="8" r:id="rId3"/>
-    <sheet name="Calcs" sheetId="5" r:id="rId4"/>
-    <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
+    <sheet name="Passenger Data" sheetId="10" r:id="rId2"/>
+    <sheet name="Calcs" sheetId="12" r:id="rId3"/>
+    <sheet name="Freight Data" sheetId="11" r:id="rId4"/>
+    <sheet name="Passenger Data Brazil" sheetId="9" r:id="rId5"/>
+    <sheet name="Freight Data Brazil" sheetId="8" r:id="rId6"/>
+    <sheet name="Calcs Brazil" sheetId="5" r:id="rId7"/>
+    <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>International Energy Agency</t>
-  </si>
-  <si>
-    <t>Transport, Energy and CO2: Moving toward Sustainability</t>
-  </si>
-  <si>
-    <t>http://www.iea.org/publications/freepublications/publication/transport2009.pdf</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-  </si>
-  <si>
-    <t>IEA's publication (above) includes projections of travel demand (in passenger*kilometers per capita)</t>
-  </si>
-  <si>
-    <t>for OECD and non-OECD regions.  This includes a BAU ("Baseline") scenario and a "BLUE Shifts" scenario</t>
-  </si>
-  <si>
-    <t>that involves a large package of transportation demand management (TDM) policies.</t>
-  </si>
-  <si>
-    <t>These include land-use planning, promoting telework and information-based travel substitutes,</t>
-  </si>
-  <si>
-    <t>parking supply and pricing, car sharing, road/congesion pricing, improving bus transit, and encouraging</t>
-  </si>
-  <si>
-    <t>While data is given for 2050, the IEA claims that nearly the same results could be achieved by 2030</t>
-  </si>
-  <si>
-    <t>(Page 204), and at any rate, what we're using in the model is the ratio of modes used for a given</t>
-  </si>
-  <si>
-    <t>reduction, rather than absolute reduction numbers, so the year is not especially important for us.</t>
-  </si>
-  <si>
-    <t>We use region-wide (OECD or non-OECD) results in this model, although the IEA document also</t>
-  </si>
-  <si>
-    <t>includes results disaggregated into urban and non-urban areas.</t>
-  </si>
-  <si>
-    <t>Unfortunately, the IEA data is only available in the form of bar graphs in the PDF report, not as</t>
-  </si>
-  <si>
-    <t>(Page 212), which is clearly labeled as passenger*km per capita.</t>
-  </si>
-  <si>
-    <t>or passenger*km per capita, the bar is essentially the same as the "OECD 2050" bar in Figure 5.9</t>
-  </si>
-  <si>
-    <t>Note 1: While the labeling of Figure 5.12 makes it unclear whether it is using vehicle*km per capita</t>
-  </si>
-  <si>
-    <t>non-motorized transport such as cycling and walking (Page 237).</t>
-  </si>
-  <si>
-    <t>data tables.  The bar graphs embedded in the PDF are vector graphics, so they do not lose sharpness</t>
-  </si>
-  <si>
-    <t>when one zooms in.  The approach used here is to zoom in considerably, take a screenshot, and use a</t>
-  </si>
-  <si>
-    <t>pixel ruler application to measure the height of the bars.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>2050 Baseline</t>
+  </si>
+  <si>
+    <t>2050 BLUE Shifts</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LDVs</t>
+  </si>
+  <si>
+    <t>HDVs</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>% Change due to TDM Package</t>
+  </si>
+  <si>
+    <t>motorbikes</t>
+  </si>
+  <si>
+    <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>freight</t>
+  </si>
+  <si>
+    <t>Percent Change (dimensionless)</t>
+  </si>
+  <si>
+    <t>LDVs:</t>
+  </si>
+  <si>
+    <t>HDVs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modal </t>
+  </si>
+  <si>
+    <t>On road</t>
+  </si>
+  <si>
+    <t>Motorbikes</t>
+  </si>
+  <si>
+    <t>On road (million of vehicles):</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Reference Scenario</t>
+  </si>
+  <si>
+    <t>Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>2050 Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>million of Passenger*km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light commercial (Otto) and light commercial (Diesel) as LDVs and urban buses, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini-buses and on road buses as HDVs. </t>
+  </si>
+  <si>
+    <t>For this segregation, we considered that the percentage of each kind of vehicle is proportional to the pkm.</t>
+  </si>
+  <si>
+    <t>Passenger Data:</t>
+  </si>
+  <si>
+    <t>is the same as the Reference Scenario (see page 42, third paragraph)</t>
+  </si>
+  <si>
+    <t>Freight Data:</t>
+  </si>
+  <si>
+    <t>it has policies to valorize other tranportation modals less energy intensive (see page 251 and page 257, section 6.1.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In MOP, the On road tranportation modal was aggregate. In order to have the data by kind of vehicle, </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Below is a part of table 94 (page 247) - Reference Scenario - and table 121 (page 282) - Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>Passenger-kilometer transported by transportation modal (million of PKM) - Reference Scenario</t>
+  </si>
+  <si>
+    <t>Passenger-kilometer transported by transportation modal (million of PKM) - Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>Below is data from page 215</t>
+  </si>
+  <si>
+    <t>Below is data from table 95 (page 248) - Reference Scenario - and table 122 (page 283) - Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>Ton-kilometer transported by transportation modal (million of TKU) - Reference Scenario</t>
+  </si>
+  <si>
+    <t>Ton-kilometer transported by transportation modal (million of TKU) - Low Carbon Scenario</t>
+  </si>
+  <si>
+    <t>million of TKU</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
+  </si>
+  <si>
+    <t>Report: "Greenhouse gas mitigation options in key sectors in Brazil"</t>
+  </si>
+  <si>
+    <t>Version: "Sector modeling of low carbon options for the transport sector"</t>
+  </si>
+  <si>
+    <t>https://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/Setor-Transportes.pdf</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Passengers</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Page 283, Table 122 (Low Carbon Scenario)</t>
+  </si>
+  <si>
+    <t>Page 282, Table 121 (Low Carbon Scenario)</t>
+  </si>
+  <si>
+    <t>Page 247,Table 94 (Reference Scenario)</t>
+  </si>
+  <si>
+    <t>Page 248, Table 95 (Reference Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Low Carbon Scenario from MOP (Mitigation Options Project) was considered to have TDM (transportation demand management) because </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data from page 215 (figure 94 and text - second paragraph) was used. We considered cars, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the Low Carbon Scenario, the distribution of the kind of On road vehicles (motorbikes, LDVs and HDVs) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In freight, Brazil has also transport via aircraft, but there is no difference between the two scenarios. </t>
   </si>
   <si>
     <t>Below is a screenshot of part of Figure 5.12 (OECD nations).</t>
   </si>
   <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>2050 Baseline</t>
-  </si>
-  <si>
-    <t>2050 BLUE Shifts</t>
+    <t>Size in Pixels (at 100% zoom in Excel)</t>
   </si>
   <si>
     <t>3-wheelers</t>
@@ -118,160 +240,39 @@
     <t>Buses</t>
   </si>
   <si>
-    <t>Rail</t>
-  </si>
-  <si>
     <t>Cars</t>
   </si>
   <si>
     <t>Light Trucks</t>
   </si>
   <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>Size in Pixels (at 100% zoom in Excel)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>% Change due to TDM Package</t>
+    <t>Below is a screenshot of part of Figure 6.7.</t>
+  </si>
+  <si>
+    <t>Heavy Trucks</t>
+  </si>
+  <si>
+    <t>Medium Trucks</t>
+  </si>
+  <si>
+    <t>Light Commercial</t>
   </si>
   <si>
     <t>Passenger*km per capita</t>
   </si>
   <si>
-    <t>Note 2: Since we only care about the mode shift percentages, we can use the per capita figures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If for some reason we need actual passenger*km in the future, the totals are available in Figure 5.8</t>
-  </si>
-  <si>
-    <t>(Page 211).</t>
-  </si>
-  <si>
-    <t>We base the lever in the model on the fraction of BLUE Shifts implemented because the effects of the</t>
-  </si>
-  <si>
-    <t>package components act in concert, and basing the lever on a particular component or a particular</t>
-  </si>
-  <si>
-    <t>part of the result (like overall passenger*dist reduction) would not be reflective of the whole picture.</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
-  </si>
-  <si>
-    <t>Below is a screenshot of part of Figure 6.7.</t>
-  </si>
-  <si>
-    <t>Heavy Trucks</t>
-  </si>
-  <si>
-    <t>Medium Trucks</t>
-  </si>
-  <si>
-    <t>Light Commercial</t>
-  </si>
-  <si>
     <t>Freight*tons</t>
-  </si>
-  <si>
-    <t>Trucks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passengers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Page 215, Figure 5.12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Freight:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Page 275, Figure 6.7</t>
-    </r>
-  </si>
-  <si>
-    <t>Freight Notes</t>
-  </si>
-  <si>
-    <t>Data for freight are not divided into OECD and non-OECD regions in the source document,</t>
-  </si>
-  <si>
-    <t>so we use the global figures.</t>
-  </si>
-  <si>
-    <t>passengers</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
-    <t>Percent Change (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +296,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -312,12 +339,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,8 +349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -337,22 +364,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,17 +451,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +548,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225751A7-D033-45CF-9F2A-25198C0D3475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -447,7 +598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA9C4F1-387D-4C6C-9683-ED7FC3A4B436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -496,7 +653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB39851-DEC8-4130-AF33-C90550C132DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -529,7 +692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,6 +767,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -639,6 +819,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,205 +1011,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2009</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" s="33">
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{CA6CA95A-9A77-4338-A670-D6FAA99D4DF6}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{669CF097-EE0D-422D-95E6-FD38123C02CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFB0E6-3983-48AD-B5B8-30190DD27551}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1027,57 +1207,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1109,8 +1289,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1151,7 +1331,210 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDBB9C8-C435-4EFA-A534-5FB9F846D575}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>296</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B3:F3)</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:F4)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <f>(B4-B3)/B3</f>
+        <v>-0.26013513513513514</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:H5" si="0">(C4-C3)/C3</f>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.29850746268656714</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.15257731958762888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <f>SUM(B9:C9)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <f>SUM(B10:C10)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <f>(B10-B9)/B9</f>
+        <v>-0.17518248175182483</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:D11" si="1">(C10-C9)/C9</f>
+        <v>0.12686567164179105</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.5830258302583026E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AFC487-6331-408F-8D5C-CBAEC3903228}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1166,47 +1549,47 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B5">
         <v>112</v>
@@ -1220,15 +1603,10 @@
       <c r="E5">
         <v>134</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B6">
         <v>87</v>
@@ -1242,11 +1620,6 @@
       <c r="E6">
         <v>151</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1257,11 +1630,559 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51515FA9-D1BB-4E17-8816-97F84B6DF7C3}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2050</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="31">
+        <v>3927143</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31">
+        <v>90000</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2310</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="31">
+        <v>1023317</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="I9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="I10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="24">
+        <f>B5*C21</f>
+        <v>1142243.8088642659</v>
+      </c>
+      <c r="K10" s="25">
+        <f>B5*C22</f>
+        <v>2746824.3975069253</v>
+      </c>
+      <c r="L10" s="26">
+        <f>B5*C23</f>
+        <v>38074.79362880886</v>
+      </c>
+      <c r="M10" s="27">
+        <f>B6</f>
+        <v>90000</v>
+      </c>
+      <c r="N10" s="27">
+        <f>B7</f>
+        <v>2310</v>
+      </c>
+      <c r="O10" s="27">
+        <f>B8</f>
+        <v>1023317</v>
+      </c>
+      <c r="P10" s="26">
+        <f>SUM(J10:O10)</f>
+        <v>5042770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="I11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="24">
+        <f>B13*C21</f>
+        <v>1119708.6565096953</v>
+      </c>
+      <c r="K11" s="25">
+        <f>B13*C22</f>
+        <v>2692632.7216066481</v>
+      </c>
+      <c r="L11" s="26">
+        <f>B13*C23</f>
+        <v>37323.621883656509</v>
+      </c>
+      <c r="M11" s="27">
+        <f>B14</f>
+        <v>167478</v>
+      </c>
+      <c r="N11" s="27">
+        <f>B15</f>
+        <v>2310</v>
+      </c>
+      <c r="O11" s="27">
+        <f>B16</f>
+        <v>1023317</v>
+      </c>
+      <c r="P11" s="26">
+        <f>SUM(J11:O11)</f>
+        <v>5042770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2050</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="31">
+        <v>3849665</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="31">
+        <v>167478</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2310</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1023317</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="32">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16">
+        <f>B21/(SUM(B21:B23))</f>
+        <v>0.29085872576177285</v>
+      </c>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="32">
+        <f>81+20</f>
+        <v>101</v>
+      </c>
+      <c r="C22" s="16">
+        <f>B22/(SUM(B21:B23))</f>
+        <v>0.69944598337950137</v>
+      </c>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="C23" s="16">
+        <f>B23/(SUM(B21:B23))</f>
+        <v>9.6952908587257611E-3</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2050</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1635179</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1423934</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
+        <v>513568</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18">
+        <v>11986</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2050</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1499321</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1494629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18">
+        <v>578731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="18">
+        <v>11986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1271,218 +2192,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>43</v>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <f>SUM('Passenger Data'!G5:H5)</f>
-        <v>296</v>
-      </c>
-      <c r="C3">
-        <f>SUM('Passenger Data'!D5:E5)</f>
-        <v>34</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <f>'Passenger Data Brazil'!K10</f>
+        <v>2746824.3975069253</v>
+      </c>
+      <c r="C3" s="17">
+        <f>'Passenger Data Brazil'!L10</f>
+        <v>38074.79362880886</v>
       </c>
       <c r="D3">
-        <f>'Passenger Data'!I5</f>
-        <v>134</v>
+        <f>'Passenger Data Brazil'!O10</f>
+        <v>1023317</v>
       </c>
       <c r="E3">
-        <f>'Passenger Data'!F5</f>
-        <v>21</v>
+        <f>'Passenger Data Brazil'!M10</f>
+        <v>90000</v>
       </c>
       <c r="F3">
+        <f>'Passenger Data Brazil'!N10</f>
+        <v>2310</v>
+      </c>
+      <c r="G3" s="17">
+        <f>'Passenger Data Brazil'!J10</f>
+        <v>1142243.8088642659</v>
+      </c>
+      <c r="H3" s="17">
+        <f>SUM(B3:G3)</f>
+        <v>5042770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="17">
+        <f>'Passenger Data Brazil'!K11</f>
+        <v>2692632.7216066481</v>
+      </c>
+      <c r="C4" s="17">
+        <f>'Passenger Data Brazil'!L11</f>
+        <v>37323.621883656509</v>
+      </c>
+      <c r="D4">
+        <f>'Passenger Data Brazil'!O11</f>
+        <v>1023317</v>
+      </c>
+      <c r="E4">
+        <f>'Passenger Data Brazil'!M11</f>
+        <v>167478</v>
+      </c>
+      <c r="F4">
+        <f>'Passenger Data Brazil'!N11</f>
+        <v>2310</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'Passenger Data Brazil'!J11</f>
+        <v>1119708.6565096953</v>
+      </c>
+      <c r="H4" s="17">
+        <f>SUM(B4:G4)</f>
+        <v>5042770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <f>(B4-B3)/B3</f>
+        <v>-1.9728846135727753E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:F5" si="0">(C4-C3)/C3</f>
+        <v>-1.9728846135727583E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>'Passenger Data'!C5</f>
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <f>SUM(B3:F3)</f>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <f>SUM('Passenger Data'!G6:H6)</f>
-        <v>219</v>
-      </c>
-      <c r="C4">
-        <f>SUM('Passenger Data'!D6:E6)</f>
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <f>'Passenger Data'!I6</f>
-        <v>94</v>
-      </c>
-      <c r="E4">
-        <f>'Passenger Data'!F6</f>
-        <v>43</v>
-      </c>
-      <c r="F4">
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86086666666666667</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>'Passenger Data'!C6</f>
+      <c r="G5" s="4">
+        <f>(G4-G3)/G3</f>
+        <v>-1.9728846135727621E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <f>(H4-H3)/H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4">
-        <f>SUM(B4:F4)</f>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6">
-        <f>(B4-B3)/B3</f>
-        <v>-0.26013513513513514</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:H5" si="0">(C4-C3)/C3</f>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.29850746268656714</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0476190476190477</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>'Freight Data Brazil'!B6</f>
+        <v>1635179</v>
+      </c>
+      <c r="D9">
+        <f>'Freight Data Brazil'!B9</f>
+        <v>11986</v>
+      </c>
+      <c r="E9">
+        <f>'Freight Data Brazil'!B7</f>
+        <v>1423934</v>
+      </c>
+      <c r="F9" s="36">
+        <f>'Freight Data Brazil'!B8</f>
+        <v>513568</v>
+      </c>
+      <c r="H9">
+        <f>SUM(B9:G9)</f>
+        <v>3584667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>'Freight Data Brazil'!B13</f>
+        <v>1499321</v>
+      </c>
+      <c r="D10">
+        <f>'Freight Data Brazil'!B16</f>
+        <v>11986</v>
+      </c>
+      <c r="E10">
+        <f>'Freight Data Brazil'!B14</f>
+        <v>1494629</v>
+      </c>
+      <c r="F10">
+        <f>'Freight Data Brazil'!B15</f>
+        <v>578731</v>
+      </c>
+      <c r="H10">
+        <f>SUM(B10:G10)</f>
+        <v>3584667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <f>(C10-C9)/C9</f>
+        <v>-8.3084481882411645E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:F11" si="1">(D10-D9)/D9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.15257731958762888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <f>SUM('Freight Data'!B5:D5)</f>
-        <v>137</v>
-      </c>
-      <c r="C9">
-        <f>'Freight Data'!E5</f>
-        <v>134</v>
-      </c>
-      <c r="D9">
-        <f>SUM(B9:C9)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <f>SUM('Freight Data'!B6:D6)</f>
-        <v>113</v>
-      </c>
-      <c r="C10">
-        <f>'Freight Data'!E6</f>
-        <v>151</v>
-      </c>
-      <c r="D10">
-        <f>SUM(B10:C10)</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="6">
-        <f>(B10-B9)/B9</f>
-        <v>-0.17518248175182483</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" ref="C11:D11" si="1">(C10-C9)/C9</f>
-        <v>0.12686567164179105</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>-2.5830258302583026E-2</v>
+        <v>4.9647666254194367E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12688290547697675</v>
+      </c>
+      <c r="H11" s="5">
+        <f>(H10-H9)/H9</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B3:C4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1492,87 +2445,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>64</v>
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8">
-        <f>Calcs!B5</f>
-        <v>-0.26013513513513514</v>
-      </c>
-      <c r="C2" s="10">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'Calcs Brazil'!B5</f>
+        <v>-1.9728846135727753E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Calcs Brazil'!B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8">
-        <f>Calcs!C5</f>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="C3" s="8">
-        <f>Calcs!B11</f>
-        <v>-0.17518248175182483</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <f>'Calcs Brazil'!C5</f>
+        <v>-1.9728846135727583E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'Calcs Brazil'!C11</f>
+        <v>-8.3084481882411645E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="8">
-        <f>Calcs!D5</f>
-        <v>-0.29850746268656714</v>
-      </c>
-      <c r="C4" s="10">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <f>'Calcs Brazil'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Calcs Brazil'!D11</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8">
-        <f>Calcs!E5</f>
-        <v>1.0476190476190477</v>
-      </c>
-      <c r="C5" s="8">
-        <f>Calcs!C11</f>
-        <v>0.12686567164179105</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <f>'Calcs Brazil'!E5</f>
+        <v>0.86086666666666667</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'Calcs Brazil'!E11</f>
+        <v>4.9647666254194367E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <f>Calcs!F5</f>
+        <f>'Calcs Brazil'!F5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
+      <c r="C6" s="8">
+        <f>'Calcs Brazil'!F11</f>
+        <v>0.12688290547697675</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <f>Calcs!G5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="C7" s="10">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <f>'Calcs Brazil'!G5</f>
+        <v>-1.9728846135727621E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Calcs Brazil'!G11</f>
         <v>0</v>
       </c>
     </row>
